--- a/SuppXLS/Scen_UC_Growthrh.xlsx
+++ b/SuppXLS/Scen_UC_Growthrh.xlsx
@@ -5,17 +5,17 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduumb-my.sharepoint.com/personal/meselu_tegenie_mellaku_nmbu_no/Documents/Documents/GitHub/MANU2025/SuppXLS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{419EA238-6CE1-4190-8DA6-FBC654B68AF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{419EA238-6CE1-4190-8DA6-FBC654B68AF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2BDDBA7D-969D-4A46-8D70-5E2C67A48D2D}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UC_Growth" sheetId="6" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -256,9 +256,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -729,7 +728,7 @@
   <dimension ref="A2:X10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X16" sqref="X16"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,7 +751,7 @@
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -772,55 +771,55 @@
       </c>
     </row>
     <row r="8" spans="1:24" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="L8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M8" s="6" t="s">
+      <c r="M8" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
+    <row r="9" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
     </row>
     <row r="10" spans="1:24" ht="21" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
@@ -850,17 +849,17 @@
       <c r="M10">
         <v>5</v>
       </c>
-      <c r="P10" s="12" t="s">
+      <c r="P10" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="12"/>
-      <c r="W10" s="12"/>
-      <c r="X10" s="12"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
